--- a/otchet.xlsx
+++ b/otchet.xlsx
@@ -48,7 +48,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -415,29 +419,78 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:A6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C55" activeCellId="1" sqref="F5 C55"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>OnD</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Город стыковки</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>№ рейсов</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>период</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>дни недели</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>вылет</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>прилет</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>время стык</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>время полета</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Отчет стыковок</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Отчет стыковок</t>
-        </is>
-      </c>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="7">
+      <c r="F7" s="1" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F4"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="180" verticalDpi="180"/>
 </worksheet>

--- a/otchet.xlsx
+++ b/otchet.xlsx
@@ -2,16 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -21,7 +20,6 @@
   <fonts count="1">
     <font>
       <name val="Calibri"/>
-      <charset val="204"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -36,13 +34,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -51,12 +63,12 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -131,9 +143,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -171,7 +183,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -241,7 +253,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -419,117 +431,91 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>OnD</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Город стыковки</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>№ рейсов</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>период</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>дни недели</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>вылет</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>прилет</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>время стык</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>время полета</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Отчет стыковок</t>
-        </is>
-      </c>
-    </row>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="7">
-      <c r="F7" s="1" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:F4"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="180" verticalDpi="180"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="180" verticalDpi="180"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="180" verticalDpi="180"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>OnD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Город стыковки</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>№ рейсов</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>период</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>дни недели</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>вылет</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>прилет</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>время стык</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>время полета</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="A5:B9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/otchet.xlsx
+++ b/otchet.xlsx
@@ -34,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -42,30 +42,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -438,6 +423,16 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -454,7 +449,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Город стыковки</t>
         </is>

--- a/otchet.xlsx
+++ b/otchet.xlsx
@@ -491,7 +491,13 @@
       </c>
     </row>
     <row r="4"/>
-    <row r="5"/>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+    </row>
     <row r="6"/>
     <row r="7"/>
     <row r="8"/>

--- a/otchet.xlsx
+++ b/otchet.xlsx
@@ -494,7 +494,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>aer-daa</t>
         </is>
       </c>
     </row>

--- a/otchet.xlsx
+++ b/otchet.xlsx
@@ -494,7 +494,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>aer-daa</t>
+          <t>as</t>
         </is>
       </c>
     </row>

--- a/otchet.xlsx
+++ b/otchet.xlsx
@@ -494,7 +494,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>awd</t>
         </is>
       </c>
     </row>

--- a/otchet.xlsx
+++ b/otchet.xlsx
@@ -46,11 +46,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -492,10 +493,35 @@
     </row>
     <row r="4"/>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>awd</t>
-        </is>
+      <c r="A5" s="1" t="n"/>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Direct Flight</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5591</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>09AUG22-11AUG22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>.2.4...</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0.5590277777777778</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6"/>

--- a/otchet.xlsx
+++ b/otchet.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[hh]:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,12 +48,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -427,7 +430,7 @@
   <cols>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
@@ -522,6 +525,9 @@
       </c>
       <c r="I5" t="n">
         <v>0</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0.0798611111111111</v>
       </c>
     </row>
     <row r="6"/>

--- a/otchet.xlsx
+++ b/otchet.xlsx
@@ -497,7 +497,7 @@
     <row r="4"/>
     <row r="5">
       <c r="A5" s="1" t="n"/>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Direct Flight</t>
         </is>
@@ -535,7 +535,7 @@
     <row r="8"/>
     <row r="9"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="E3:E4"/>
@@ -546,7 +546,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="C5:C9"/>
     <mergeCell ref="A5:B9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/otchet.xlsx
+++ b/otchet.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="35" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="55" customWidth="1" min="4" max="4"/>
     <col width="35" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
@@ -499,302 +499,3810 @@
       <c r="A5" s="1" t="n"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['KZN', 'DME', 'LED', 'OVB']</t>
-        </is>
+          <t>Direct Flight</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>08AUG22-14AUG22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1234567</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0.4895833333333333</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0.07291666666666667</v>
       </c>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['KZN', 'DME', 'KUF', 'OVB']</t>
-        </is>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1054</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>08AUG22-14AUG22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1234567</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0.7048611111111112</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0.7743055555555556</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>['KZN', 'DME', 'GOJ', 'OVB']</t>
-        </is>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1056</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>08AUG22-14AUG22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1234567</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0.8298611111111112</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0.07291666666666667</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>['KZN', 'DME', 'UFA', 'OVB']</t>
-        </is>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>08AUG22-14AUG22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1234567</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>['KZN', 'DME', 'CEK', 'OVB']</t>
-        </is>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>08AUG22-14AUG22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1234567</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0.2013888888888889</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>['KZN', 'DME', 'PEE', 'OVB']</t>
-        </is>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>08AUG22-14AUG22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1234567</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0.01388888888888889</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>-0.9270833333333334</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>['KZN', 'DME', 'SVX', 'OVB']</t>
+          <t>['KZN', 'OVB', 'DME']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>480</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>['KZN', 'DME', 'KGD', 'OVB']</t>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['2502', '2504', '2508', '2510', '2514', '2518']</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>720</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="inlineStr">
         <is>
-          <t>['KZN', 'DME', 'AER', 'OVB']</t>
+          <t>['KZN', 'OVB', 'LED', 'DME']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>480</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>['KZN', 'DME', 'VOG', 'OVB']</t>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['5001', '5003', '5005', '5007', '5011']</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>360</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>['KZN', 'DME', 'MCX', 'OVB']</t>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['1012', '1014', '1016', '1020', '1026', '1028']</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>720</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="inlineStr">
         <is>
-          <t>['KZN', 'DME', 'MRV', 'OVB']</t>
+          <t>['KZN', 'OVB', 'SVX', 'DME']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>480</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>['KZN', 'DME', 'GRV', 'OVB']</t>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['5015', '5017', '5019']</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>720</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>['KZN', 'DME', 'OVB']</t>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['1174']</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>720</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t>['KZN', 'DME', 'KJA', 'OVB']</t>
+          <t>['KZN', 'OVB', 'CEK', 'DME']</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>480</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>['KZN', 'DME', 'OMS', 'OVB']</t>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['5027', '5029']</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>['KZN', 'DME', 'NUX', 'OVB']</t>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['1142', '1146']</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>720</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="C22" t="inlineStr">
         <is>
-          <t>['KZN', 'DME', 'NSK', 'OVB']</t>
+          <t>['KZN', 'OVB', 'KUF', 'DME']</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>480</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>['KZN', 'DME', 'ABA', 'OVB']</t>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['5031', '5033']</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>180</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>['KZN', 'DME', 'BAX', 'OVB']</t>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['1072', '1074', '1076', '1078', '1080']</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>720</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="inlineStr">
         <is>
-          <t>['KZN', 'DME', 'KEJ', 'OVB']</t>
+          <t>['KZN', 'OVB', 'PEE', 'DME']</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>480</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>['KZN', 'DME', 'NJC', 'OVB']</t>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['5041', '5041']</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>['KZN', 'DME', 'TOF', 'OVB']</t>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['1158', '1160']</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>720</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="inlineStr">
         <is>
-          <t>['KZN', 'DME', 'NOZ', 'OVB']</t>
+          <t>['KZN', 'OVB', 'UFA', 'DME']</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>480</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>['KZN', 'DME', 'YKS', 'OVB']</t>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['5045', '5047']</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>300</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>['KZN', 'DME', 'IKT', 'OVB']</t>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>['1132', '1134', '1136', '1138', '1140']</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>720</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="inlineStr">
         <is>
-          <t>['KZN', 'DME', 'UUD', 'OVB']</t>
+          <t>['KZN', 'OVB', 'GOJ', 'DME']</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>480</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>['KZN', 'DME', 'BTK', 'OVB']</t>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>['5053', '5055']</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>['KZN', 'DME', 'HTA', 'OVB']</t>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['1094', '1098']</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>720</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="C34" t="inlineStr">
         <is>
-          <t>['KZN', 'DME', 'MJZ', 'OVB']</t>
+          <t>['KZN', 'OVB', 'KGD', 'DME']</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>480</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>['KZN', 'DME', 'NER', 'OVB']</t>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>['5065', '5069']</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>['KZN', 'DME', 'BQS', 'OVB']</t>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>['1212', '1214', '1218', '1220']</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>720</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="C37" t="inlineStr">
         <is>
-          <t>['KZN', 'DME', 'LBD', 'OVB']</t>
+          <t>['KZN', 'OVB', 'AER', 'DME']</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>480</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>['KZN', 'DME', 'OSS', 'OVB']</t>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>['5101', '5103', '5105', '5107', '5109', '5113']</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>360</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Direct Flight</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5036</t>
+          <t>['2042', '2044', '2046', '2048', '2050', '2052', '2054', '2056', '2066', '2066', '2066', '2068', '2068', '2068', '2068', '2068']</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>08AUG22-14AUG22</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1234567</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>0.6145833333333334</v>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>0.9131944444444444</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3" t="n">
-        <v>0.2986111111111111</v>
+        <v>720</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="40">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'MRV', 'DME']</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5038</t>
+          <t>['5036', '5038']</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09AUG22-14AUG22</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>.2.45.7</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>0.9340277777777778</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>0.2326388888888889</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3" t="n">
-        <v>-0.7013888888888888</v>
+        <v>480</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>['5127', '5129']</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>['2166', '2168', '2170', '2172', '2174']</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>720</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'VOG', 'DME']</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>480</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>['5131']</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>90</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>['2142', '2144', '2146']</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>720</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'GRV', 'DME']</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>480</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>['5143']</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>['2184']</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>720</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'MCX', 'DME']</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>480</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>['5151']</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>['2158', '2160']</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>720</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'BQS', 'DME']</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>480</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>['5211', '5213']</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>['3062', '3064', '3066']</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>720</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'BTK', 'DME']</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>480</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>['5215']</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>['3042']</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>720</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'HTA', 'DME']</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>480</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>['5221', '5223']</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>['3046', '3048']</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>720</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'IKT', 'DME']</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>480</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>['5227', '5229', '5231', '5233']</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>480</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>['3018', '3020', '3022']</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>720</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'MJZ', 'DME']</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>480</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>['5241', '5243']</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>['3056']</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>720</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'NER', 'DME']</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>480</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>['5245', '5245']</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>['3060']</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>720</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'UUD', 'DME']</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>480</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>['5253', '5255']</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>['3032', '3034', '3036']</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>720</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'YKS', 'DME']</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>480</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>['5261', '5263']</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>['3006']</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>720</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'NSK', 'DME']</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>480</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>['5301', '5303']</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>['2582']</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>720</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'KJA', 'DME']</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>480</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>['5305', '5307', '5309', '5315', '5323']</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>360</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>['2546', '2548']</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>720</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'ABA', 'DME']</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>480</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>['5311', '5321']</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>['2594']</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>720</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'TOF', 'DME']</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>480</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>['5313']</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>['2614', '2616']</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>720</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'KEJ', 'DME']</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>480</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>['5317']</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>['2606']</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>720</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'BAX', 'DME']</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>480</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>['5325']</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>['2602', '2604']</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>720</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'NJC', 'DME']</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>480</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>['5327', '5329']</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>['2610']</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>720</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'NUX', 'DME']</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>480</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>['5335', '5337']</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>['2572', '2574']</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>720</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'OMS', 'DME']</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>480</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>['5343', '5345']</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>['2564', '2566', '2568']</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>720</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'NOZ', 'DME']</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>480</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>['5361', '5363']</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>['2626']</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>720</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'OSS', 'DME']</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>480</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>['5543', '5545', '5545', '5547', '5547', '5547']</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>['3260']</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>720</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>['KZN', 'OVB', 'LBD', 'DME']</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>['5036', '5038']</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>480</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>['5555']</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>['3242']</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>720</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>
